--- a/_data/BTCUSDT_1d.xlsx
+++ b/_data/BTCUSDT_1d.xlsx
@@ -395,7 +395,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F1001"/>
+  <dimension ref="A1:F1011"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -20421,6 +20421,206 @@
         <v>22524.57794</v>
       </c>
     </row>
+    <row r="1002" spans="1:6">
+      <c r="A1002" s="2">
+        <v>45532</v>
+      </c>
+      <c r="B1002">
+        <v>59415</v>
+      </c>
+      <c r="C1002">
+        <v>60234.98</v>
+      </c>
+      <c r="D1002">
+        <v>57860</v>
+      </c>
+      <c r="E1002">
+        <v>59034.9</v>
+      </c>
+      <c r="F1002">
+        <v>36868.54275</v>
+      </c>
+    </row>
+    <row r="1003" spans="1:6">
+      <c r="A1003" s="2">
+        <v>45533</v>
+      </c>
+      <c r="B1003">
+        <v>59034.9</v>
+      </c>
+      <c r="C1003">
+        <v>61166.99</v>
+      </c>
+      <c r="D1003">
+        <v>58713.09</v>
+      </c>
+      <c r="E1003">
+        <v>59359.01</v>
+      </c>
+      <c r="F1003">
+        <v>27020.90743</v>
+      </c>
+    </row>
+    <row r="1004" spans="1:6">
+      <c r="A1004" s="2">
+        <v>45534</v>
+      </c>
+      <c r="B1004">
+        <v>59359</v>
+      </c>
+      <c r="C1004">
+        <v>59944.07</v>
+      </c>
+      <c r="D1004">
+        <v>57701.1</v>
+      </c>
+      <c r="E1004">
+        <v>59123.99</v>
+      </c>
+      <c r="F1004">
+        <v>28519.32195</v>
+      </c>
+    </row>
+    <row r="1005" spans="1:6">
+      <c r="A1005" s="2">
+        <v>45535</v>
+      </c>
+      <c r="B1005">
+        <v>59123.99</v>
+      </c>
+      <c r="C1005">
+        <v>59462.38</v>
+      </c>
+      <c r="D1005">
+        <v>58744</v>
+      </c>
+      <c r="E1005">
+        <v>58973.99</v>
+      </c>
+      <c r="F1005">
+        <v>8798.409</v>
+      </c>
+    </row>
+    <row r="1006" spans="1:6">
+      <c r="A1006" s="2">
+        <v>45536</v>
+      </c>
+      <c r="B1006">
+        <v>58974</v>
+      </c>
+      <c r="C1006">
+        <v>59076.59</v>
+      </c>
+      <c r="D1006">
+        <v>57201</v>
+      </c>
+      <c r="E1006">
+        <v>58161.1</v>
+      </c>
+      <c r="F1006">
+        <v>14710.46129</v>
+      </c>
+    </row>
+    <row r="1007" spans="1:6">
+      <c r="A1007" s="2">
+        <v>45537</v>
+      </c>
+      <c r="B1007">
+        <v>57301.77</v>
+      </c>
+      <c r="C1007">
+        <v>58808</v>
+      </c>
+      <c r="D1007">
+        <v>57128</v>
+      </c>
+      <c r="E1007">
+        <v>58564.01</v>
+      </c>
+      <c r="F1007">
+        <v>19300.24009</v>
+      </c>
+    </row>
+    <row r="1008" spans="1:6">
+      <c r="A1008" s="2">
+        <v>45538</v>
+      </c>
+      <c r="B1008">
+        <v>59132.12</v>
+      </c>
+      <c r="C1008">
+        <v>59809.65</v>
+      </c>
+      <c r="D1008">
+        <v>57415</v>
+      </c>
+      <c r="E1008">
+        <v>57487.73</v>
+      </c>
+      <c r="F1008">
+        <v>22828.18447</v>
+      </c>
+    </row>
+    <row r="1009" spans="1:6">
+      <c r="A1009" s="2">
+        <v>45539</v>
+      </c>
+      <c r="B1009">
+        <v>57487.74</v>
+      </c>
+      <c r="C1009">
+        <v>58519</v>
+      </c>
+      <c r="D1009">
+        <v>55606</v>
+      </c>
+      <c r="E1009">
+        <v>57970.9</v>
+      </c>
+      <c r="F1009">
+        <v>35560.82146</v>
+      </c>
+    </row>
+    <row r="1010" spans="1:6">
+      <c r="A1010" s="2">
+        <v>45540</v>
+      </c>
+      <c r="B1010">
+        <v>57970.9</v>
+      </c>
+      <c r="C1010">
+        <v>58327.07</v>
+      </c>
+      <c r="D1010">
+        <v>55643.65</v>
+      </c>
+      <c r="E1010">
+        <v>56180</v>
+      </c>
+      <c r="F1010">
+        <v>27806.91413</v>
+      </c>
+    </row>
+    <row r="1011" spans="1:6">
+      <c r="A1011" s="2">
+        <v>45541</v>
+      </c>
+      <c r="B1011">
+        <v>56180</v>
+      </c>
+      <c r="C1011">
+        <v>57008</v>
+      </c>
+      <c r="D1011">
+        <v>55280</v>
+      </c>
+      <c r="E1011">
+        <v>56524.81</v>
+      </c>
+      <c r="F1011">
+        <v>19804.28125</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
